--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959437979.6038615</v>
+        <v>39779848.49138999</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8392.162331401021</v>
+        <v>938790.3603045627</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15817.28317279925</v>
+        <v>1725901.010512434</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23242.40401419748</v>
+        <v>2513011.660720306</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30983.99157728298</v>
+        <v>3317520.458806966</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38638.15126158061</v>
+        <v>4104631.109014839</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46292.31094587823</v>
+        <v>4891741.759222711</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53946.47063017585</v>
+        <v>5678852.409430579</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61600.63031447347</v>
+        <v>6465963.059638447</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69254.7899987711</v>
+        <v>7253073.709846316</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76908.94968306871</v>
+        <v>8040184.360054185</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84563.10936736633</v>
+        <v>8827295.010262059</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91922.22871503938</v>
+        <v>9597007.512591148</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99368.77594150031</v>
+        <v>10384118.16279902</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106815.3231679613</v>
+        <v>11171228.8130069</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114261.8703944222</v>
+        <v>11958339.46321478</v>
       </c>
     </row>
   </sheetData>
